--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -448,7 +448,7 @@
 </t>
   </si>
   <si>
-    <t>Research Program</t>
+    <t>Ferlab.bio Extension/research-program</t>
   </si>
   <si>
     <t>Research program metadata for Group resource</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -353,7 +353,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -601,7 +601,7 @@
     <t>What the purpose of a list is.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-example-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/list-example-codes|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -613,7 +613,7 @@
     <t>List.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(Patient|4.0.1|Group|4.0.1|Device|4.0.1|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>List.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -686,7 +686,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -726,7 +726,7 @@
     <t>What order applies to the items in a list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-order</t>
+    <t>http://hl7.org/fhir/ValueSet/list-order|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].sequenceNumber &gt; 1</t>
@@ -833,7 +833,7 @@
     <t>Codes that provide further information about the reason and meaning of the item in the list.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-item-flag</t>
+    <t>http://hl7.org/fhir/ValueSet/list-item-flag|4.0.1</t>
   </si>
   <si>
     <t>List.entry.deleted</t>
@@ -883,7 +883,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -914,7 +914,7 @@
     <t>If a list is empty, why it is empty.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/list-empty-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/list-empty-reason|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ,code&lt;ListEmptyReason].value[type=CD]</t>
@@ -1241,7 +1241,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="56.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.41796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1256,7 +1256,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="73.66015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.33203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="41.86328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-cqdg-program.xlsx
+++ b/docs/StructureDefinition-cqdg-program.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
